--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1241122D-4DFA-4498-B71C-1F9F43ED25B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA3C45-1906-4EA3-80CC-ABF55111ACD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -22353,7 +22354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA3C45-1906-4EA3-80CC-ABF55111ACD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A36EC-9F99-48A4-9E62-A68C42C0EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FC9B1B-D43A-4BA9-BB1A-9DC037EA4B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149F4763-F68C-4E47-91DA-B32C0FABC075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-12270" windowWidth="19200" windowHeight="21000" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149F4763-F68C-4E47-91DA-B32C0FABC075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D5EFF0-45D7-440C-A57D-52E1C4FD3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D5EFF0-45D7-440C-A57D-52E1C4FD3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE3FA3B-EC0F-42DB-977B-5FAF1F1B7930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE3FA3B-EC0F-42DB-977B-5FAF1F1B7930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1DB59-2F64-4373-AEA1-A059312DC139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,7 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -22354,7 +22354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1DB59-2F64-4373-AEA1-A059312DC139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1886CD-5CAF-44C8-BA7E-E5570E8EAD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -22354,7 +22353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1886CD-5CAF-44C8-BA7E-E5570E8EAD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21AF09E-EB60-4BFE-8693-ABBAF27B8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21AF09E-EB60-4BFE-8693-ABBAF27B8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4BD239-8E60-4988-9788-47B7A1525642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4BD239-8E60-4988-9788-47B7A1525642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C88147-EA0F-4A1E-A1E3-29FEC2B065B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C88147-EA0F-4A1E-A1E3-29FEC2B065B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86031FA6-1B48-42D4-A5AE-B7E4F689D467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86031FA6-1B48-42D4-A5AE-B7E4F689D467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536EFD72-3DE9-4ED8-B658-0D84785A3483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536EFD72-3DE9-4ED8-B658-0D84785A3483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3FC211-708F-48D0-BD83-190460E472A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3FC211-708F-48D0-BD83-190460E472A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69638989-8CBF-4CE9-B765-271B90DBFA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69638989-8CBF-4CE9-B765-271B90DBFA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BBA8FD-3085-4912-9CF3-5DA794D91443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BBA8FD-3085-4912-9CF3-5DA794D91443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004742F3-40AB-4D13-B292-E41A7CB72969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004742F3-40AB-4D13-B292-E41A7CB72969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B1CCAB-D104-490D-BD26-DD96A2F3FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="13320" windowHeight="7704" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2030.xlsx
+++ b/data/CS3/case30/case30_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B1CCAB-D104-490D-BD26-DD96A2F3FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924F0783-9C42-4CDC-82AB-40D97C01EE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="13320" windowHeight="7704" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="-11790" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
